--- a/public/data/yield_loss/yield_table_cameroon.xlsx
+++ b/public/data/yield_loss/yield_table_cameroon.xlsx
@@ -1338,13 +1338,13 @@
         <v>83</v>
       </c>
       <c r="D2" t="n">
-        <v>38.69</v>
+        <v>38.68</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>64245.11</v>
+        <v>28216.86</v>
       </c>
       <c r="G2" t="n">
         <v>29865.86</v>
@@ -1353,22 +1353,22 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1054.4</v>
+        <v>1054.23</v>
       </c>
       <c r="J2" t="n">
-        <v>543.31</v>
+        <v>543.13</v>
       </c>
       <c r="K2" t="n">
-        <v>2964.77</v>
+        <v>1436.28</v>
       </c>
       <c r="L2" t="n">
-        <v>34930.74</v>
+        <v>16779.62</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>10442.21</v>
+        <v>9405.7</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1380,7 +1380,7 @@
         <v>119.65</v>
       </c>
       <c r="R2" t="n">
-        <v>398.43</v>
+        <v>398.29</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1389,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>3471.98</v>
+        <v>1790.37</v>
       </c>
       <c r="V2" t="n">
-        <v>2940.43</v>
+        <v>2940.04</v>
       </c>
       <c r="W2" t="n">
-        <v>9120.89</v>
+        <v>9009.21</v>
       </c>
       <c r="X2" t="n">
         <v>5.97</v>
       </c>
       <c r="Y2" t="n">
-        <v>23.47</v>
+        <v>23.46</v>
       </c>
       <c r="Z2" t="n">
         <v>8.66</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>95102.68</v>
+        <v>25120.95</v>
       </c>
       <c r="G3" t="n">
         <v>2691.3</v>
@@ -1439,16 +1439,16 @@
         <v>262.7</v>
       </c>
       <c r="K3" t="n">
-        <v>4170.84</v>
+        <v>1302.41</v>
       </c>
       <c r="L3" t="n">
-        <v>40172.21</v>
+        <v>13543.4</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>6770.34</v>
+        <v>6769.74</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>6698.74</v>
+        <v>2103.03</v>
       </c>
       <c r="V3" t="n">
         <v>1604.46</v>
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>21286.26</v>
+        <v>5649.5</v>
       </c>
       <c r="G4" t="n">
         <v>6169.47</v>
@@ -1519,16 +1519,16 @@
         <v>576.54</v>
       </c>
       <c r="K4" t="n">
-        <v>883.77</v>
+        <v>270.61</v>
       </c>
       <c r="L4" t="n">
-        <v>48420.2</v>
+        <v>27574.96</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>21335.59</v>
+        <v>21240.56</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1155.45</v>
+        <v>405.43</v>
       </c>
       <c r="V4" t="n">
         <v>4600.98</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>17706.88</v>
+        <v>7661.6</v>
       </c>
       <c r="G5" t="n">
         <v>3586.52</v>
@@ -1599,16 +1599,16 @@
         <v>199.48</v>
       </c>
       <c r="K5" t="n">
-        <v>651.37</v>
+        <v>348.78</v>
       </c>
       <c r="L5" t="n">
-        <v>32053.56</v>
+        <v>17588.08</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>6260.18</v>
+        <v>6259.43</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1114.91</v>
+        <v>706.77</v>
       </c>
       <c r="V5" t="n">
         <v>1171.91</v>
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1524.11</v>
+        <v>1508.41</v>
       </c>
       <c r="G6" t="n">
         <v>326.03</v>
@@ -1682,13 +1682,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>10058.83</v>
+        <v>9981.37</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>9559.65</v>
+        <v>9556.86</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>158.69</v>
+        <v>158.42</v>
       </c>
       <c r="V6" t="n">
         <v>449.25</v>
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>135.76</v>
+        <v>135.68</v>
       </c>
       <c r="G7" t="n">
         <v>407.45</v>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>18131.96</v>
+        <v>17560.44</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>45.24</v>
+        <v>45.12</v>
       </c>
       <c r="V7" t="n">
         <v>150.47</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>3350.5</v>
+        <v>3278.6</v>
       </c>
       <c r="G8" t="n">
         <v>565.39</v>
@@ -1842,13 +1842,13 @@
         <v>4.18</v>
       </c>
       <c r="L8" t="n">
-        <v>10639.49</v>
+        <v>10455.75</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>6160.41</v>
+        <v>6160.39</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>178.72</v>
+        <v>182.66</v>
       </c>
       <c r="V8" t="n">
         <v>465.27</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>4490.83</v>
+        <v>3447.88</v>
       </c>
       <c r="G9" t="n">
         <v>1956.11</v>
@@ -1922,13 +1922,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>15383.67</v>
+        <v>13801.22</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>10972.36</v>
+        <v>10972.28</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1946,10 +1946,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>69.22</v>
+        <v>69.21</v>
       </c>
       <c r="U9" t="n">
-        <v>1401.29</v>
+        <v>1315.11</v>
       </c>
       <c r="V9" t="n">
         <v>1082.39</v>
@@ -1984,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>936.17</v>
+        <v>886.04</v>
       </c>
       <c r="G10" t="n">
         <v>636.08</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>16376.02</v>
+        <v>15341.42</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>1171.28</v>
+        <v>1134.9</v>
       </c>
       <c r="V10" t="n">
         <v>203.08</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>6894.4</v>
+        <v>6820.63</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>55.67</v>
+        <v>55.66</v>
       </c>
       <c r="V11" t="n">
         <v>57.76</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>21.68</v>
+        <v>21.16</v>
       </c>
       <c r="G13" t="n">
         <v>7571.92</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>40244.25</v>
+        <v>20801.92</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>21258.71</v>
+        <v>20672.43</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -2269,13 +2269,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="V13" t="n">
         <v>5609.61</v>
       </c>
       <c r="W13" t="n">
-        <v>1829.45</v>
+        <v>1829.29</v>
       </c>
       <c r="X13" t="n">
         <v>9.35</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>639.73</v>
+        <v>580.39</v>
       </c>
       <c r="G14" t="n">
         <v>861.05</v>
@@ -2322,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>14142.41</v>
+        <v>12940.38</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>293.38</v>
+        <v>263.55</v>
       </c>
       <c r="V14" t="n">
         <v>394.58</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>597.41</v>
+        <v>572.71</v>
       </c>
       <c r="G15" t="n">
         <v>551.52</v>
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>15097.78</v>
+        <v>14330.67</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -2429,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>212.47</v>
+        <v>204.76</v>
       </c>
       <c r="V15" t="n">
         <v>326.05</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1031.32</v>
+        <v>979.45</v>
       </c>
       <c r="G17" t="n">
         <v>646.78</v>
@@ -2562,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>7468.88</v>
+        <v>6896</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>173.11</v>
+        <v>111.27</v>
       </c>
       <c r="G18" t="n">
         <v>4171.4</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>16911.68</v>
+        <v>12511.34</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2704,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>774.64</v>
+        <v>690.07</v>
       </c>
       <c r="G19" t="n">
         <v>6162.69</v>
@@ -2722,22 +2722,22 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>17767.68</v>
+        <v>15135.85</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>9799.75</v>
+        <v>9795.29</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>238.87</v>
+        <v>238.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.38</v>
+        <v>4.37</v>
       </c>
       <c r="R19" t="n">
         <v>179.15</v>
@@ -2749,7 +2749,7 @@
         <v>9.15</v>
       </c>
       <c r="U19" t="n">
-        <v>20.73</v>
+        <v>16.62</v>
       </c>
       <c r="V19" t="n">
         <v>1428.25</v>
@@ -2864,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>146.75</v>
+        <v>146.36</v>
       </c>
       <c r="G21" t="n">
         <v>0.39</v>
@@ -2879,10 +2879,10 @@
         <v>6.83</v>
       </c>
       <c r="K21" t="n">
-        <v>183.49</v>
+        <v>183.31</v>
       </c>
       <c r="L21" t="n">
-        <v>772.35</v>
+        <v>770.74</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -2909,7 +2909,7 @@
         <v>1505.95</v>
       </c>
       <c r="U21" t="n">
-        <v>15.82</v>
+        <v>15.8</v>
       </c>
       <c r="V21" t="n">
         <v>10.49</v>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>545.51</v>
+        <v>528.87</v>
       </c>
       <c r="G23" t="n">
         <v>56</v>
@@ -3039,10 +3039,10 @@
         <v>128.43</v>
       </c>
       <c r="K23" t="n">
-        <v>274.72</v>
+        <v>271.46</v>
       </c>
       <c r="L23" t="n">
-        <v>6714.7</v>
+        <v>6381.77</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -3069,7 +3069,7 @@
         <v>3124.82</v>
       </c>
       <c r="U23" t="n">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="V23" t="n">
         <v>567.94</v>
@@ -3098,13 +3098,13 @@
         <v>109</v>
       </c>
       <c r="D24" t="n">
-        <v>20.83</v>
+        <v>20.81</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>30303.41</v>
+        <v>9866.82</v>
       </c>
       <c r="G24" t="n">
         <v>13179.22</v>
@@ -3113,22 +3113,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>898.58</v>
+        <v>898.41</v>
       </c>
       <c r="J24" t="n">
-        <v>358.2</v>
+        <v>358.02</v>
       </c>
       <c r="K24" t="n">
-        <v>1829.48</v>
+        <v>759.95</v>
       </c>
       <c r="L24" t="n">
-        <v>36088.33</v>
+        <v>18104.75</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>10612.89</v>
+        <v>10212.06</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -3140,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>262.35</v>
+        <v>262.2</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -3149,19 +3149,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>910.29</v>
+        <v>319.77</v>
       </c>
       <c r="V24" t="n">
-        <v>2461.67</v>
+        <v>2461.28</v>
       </c>
       <c r="W24" t="n">
-        <v>2909.27</v>
+        <v>2821.58</v>
       </c>
       <c r="X24" t="n">
         <v>3.74</v>
       </c>
       <c r="Y24" t="n">
-        <v>13.14</v>
+        <v>13.13</v>
       </c>
       <c r="Z24" t="n">
         <v>1.41</v>
@@ -3184,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>2996.68</v>
+        <v>2805.32</v>
       </c>
       <c r="G25" t="n">
         <v>506.12</v>
@@ -3199,10 +3199,10 @@
         <v>11.97</v>
       </c>
       <c r="K25" t="n">
-        <v>42.15</v>
+        <v>43.57</v>
       </c>
       <c r="L25" t="n">
-        <v>1360.77</v>
+        <v>1308.68</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>144.95</v>
+        <v>145.03</v>
       </c>
       <c r="V25" t="n">
         <v>38.6</v>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>21969.05</v>
+        <v>16383.95</v>
       </c>
       <c r="G26" t="n">
         <v>763.17</v>
@@ -3282,13 +3282,13 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>435.68</v>
+        <v>438.76</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>7994.05</v>
+        <v>7073.73</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -3297,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>29224.32</v>
+        <v>25939.2</v>
       </c>
       <c r="R26" t="n">
         <v>6.93</v>
@@ -3309,13 +3309,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>266.01</v>
+        <v>254.82</v>
       </c>
       <c r="V26" t="n">
         <v>512.53</v>
       </c>
       <c r="W26" t="n">
-        <v>844.44</v>
+        <v>839.45</v>
       </c>
       <c r="X26" t="n">
         <v>93.48</v>
@@ -3324,7 +3324,7 @@
         <v>8.49</v>
       </c>
       <c r="Z26" t="n">
-        <v>67.81</v>
+        <v>60.61</v>
       </c>
     </row>
     <row r="27">
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>3772.7</v>
+        <v>3495.48</v>
       </c>
       <c r="G27" t="n">
         <v>5436.85</v>
@@ -3359,25 +3359,25 @@
         <v>120.17</v>
       </c>
       <c r="K27" t="n">
-        <v>63.15</v>
+        <v>58.45</v>
       </c>
       <c r="L27" t="n">
-        <v>10404.92</v>
+        <v>8585.1</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>5286.2</v>
+        <v>5279.8</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>435.02</v>
+        <v>434.23</v>
       </c>
       <c r="Q27" t="n">
-        <v>366.96</v>
+        <v>366.68</v>
       </c>
       <c r="R27" t="n">
         <v>105.05</v>
@@ -3386,10 +3386,10 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>93.19</v>
+        <v>93.07</v>
       </c>
       <c r="U27" t="n">
-        <v>260</v>
+        <v>252.93</v>
       </c>
       <c r="V27" t="n">
         <v>613.8</v>
@@ -3404,7 +3404,7 @@
         <v>5.42</v>
       </c>
       <c r="Z27" t="n">
-        <v>10.55</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="28">
@@ -3418,13 +3418,13 @@
         <v>113</v>
       </c>
       <c r="D28" t="n">
-        <v>35.77</v>
+        <v>35.76</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>32315.68</v>
+        <v>13932.84</v>
       </c>
       <c r="G28" t="n">
         <v>18393.94</v>
@@ -3433,22 +3433,22 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1692.23</v>
+        <v>1692.06</v>
       </c>
       <c r="J28" t="n">
-        <v>550.63</v>
+        <v>550.41</v>
       </c>
       <c r="K28" t="n">
-        <v>2402.97</v>
+        <v>1395.38</v>
       </c>
       <c r="L28" t="n">
-        <v>56264.62</v>
+        <v>30352.4</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>19649.83</v>
+        <v>17342.14</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -3460,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>465.94</v>
+        <v>465.76</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>646.3</v>
+        <v>281.44</v>
       </c>
       <c r="V28" t="n">
-        <v>4768.87</v>
+        <v>4768.48</v>
       </c>
       <c r="W28" t="n">
-        <v>3768.16</v>
+        <v>3615.98</v>
       </c>
       <c r="X28" t="n">
         <v>1.6</v>
       </c>
       <c r="Y28" t="n">
-        <v>20.59</v>
+        <v>20.58</v>
       </c>
       <c r="Z28" t="n">
         <v>0.54</v>
@@ -3504,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1301.93</v>
+        <v>968.57</v>
       </c>
       <c r="G29" t="n">
         <v>5451.69</v>
@@ -3519,16 +3519,16 @@
         <v>91.67</v>
       </c>
       <c r="K29" t="n">
-        <v>456.98</v>
+        <v>389.35</v>
       </c>
       <c r="L29" t="n">
-        <v>13061.09</v>
+        <v>8940.84</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>17346.28</v>
+        <v>17232.62</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -3549,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>3.48</v>
+        <v>2.98</v>
       </c>
       <c r="V29" t="n">
         <v>504.51</v>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>696.57</v>
+        <v>467.28</v>
       </c>
       <c r="G30" t="n">
         <v>928.15</v>
@@ -3599,10 +3599,10 @@
         <v>184.63</v>
       </c>
       <c r="K30" t="n">
-        <v>2.88</v>
+        <v>2.72</v>
       </c>
       <c r="L30" t="n">
-        <v>20136.28</v>
+        <v>15148.05</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>533.8</v>
       </c>
       <c r="U30" t="n">
-        <v>285.26</v>
+        <v>255.65</v>
       </c>
       <c r="V30" t="n">
         <v>1112.13</v>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1752.98</v>
+        <v>1643.27</v>
       </c>
       <c r="G31" t="n">
         <v>119.21</v>
@@ -3679,10 +3679,10 @@
         <v>317.91</v>
       </c>
       <c r="K31" t="n">
-        <v>32.25</v>
+        <v>32.21</v>
       </c>
       <c r="L31" t="n">
-        <v>11353.44</v>
+        <v>10484.25</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>2448.21</v>
       </c>
       <c r="U31" t="n">
-        <v>25.23</v>
+        <v>23.34</v>
       </c>
       <c r="V31" t="n">
         <v>958.71</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>14771.9</v>
+        <v>8448.03</v>
       </c>
       <c r="G32" t="n">
         <v>1898.4</v>
@@ -3759,25 +3759,25 @@
         <v>761.95</v>
       </c>
       <c r="K32" t="n">
-        <v>682.1</v>
+        <v>595.77</v>
       </c>
       <c r="L32" t="n">
-        <v>75875.27</v>
+        <v>43122.61</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>25469.86</v>
+        <v>24559.84</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1520.93</v>
+        <v>1488.4</v>
       </c>
       <c r="Q32" t="n">
-        <v>59.53</v>
+        <v>52.44</v>
       </c>
       <c r="R32" t="n">
         <v>642.26</v>
@@ -3786,16 +3786,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>7345.53</v>
+        <v>6933.17</v>
       </c>
       <c r="U32" t="n">
-        <v>406.03</v>
+        <v>326.53</v>
       </c>
       <c r="V32" t="n">
         <v>10586.3</v>
       </c>
       <c r="W32" t="n">
-        <v>13542.29</v>
+        <v>13539.27</v>
       </c>
       <c r="X32" t="n">
         <v>1.28</v>
@@ -3804,7 +3804,7 @@
         <v>29.14</v>
       </c>
       <c r="Z32" t="n">
-        <v>11.33</v>
+        <v>11.27</v>
       </c>
     </row>
     <row r="33">
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>729.74</v>
+        <v>581.89</v>
       </c>
       <c r="G33" t="n">
         <v>713.8</v>
@@ -3839,25 +3839,25 @@
         <v>92.39</v>
       </c>
       <c r="K33" t="n">
-        <v>290.74</v>
+        <v>264.05</v>
       </c>
       <c r="L33" t="n">
-        <v>11814.93</v>
+        <v>8781.31</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>2784.12</v>
+        <v>2783.29</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>364.89</v>
+        <v>364.78</v>
       </c>
       <c r="Q33" t="n">
-        <v>151.01</v>
+        <v>150.96</v>
       </c>
       <c r="R33" t="n">
         <v>53.1</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2397.68</v>
+        <v>2396.84</v>
       </c>
       <c r="U33" t="n">
-        <v>13.41</v>
+        <v>11.89</v>
       </c>
       <c r="V33" t="n">
         <v>680.62</v>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1156.78</v>
+        <v>1093.06</v>
       </c>
       <c r="G34" t="n">
         <v>398.2</v>
@@ -3919,10 +3919,10 @@
         <v>273.7</v>
       </c>
       <c r="K34" t="n">
-        <v>170.16</v>
+        <v>163.97</v>
       </c>
       <c r="L34" t="n">
-        <v>20607</v>
+        <v>19043.96</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>7116.24</v>
       </c>
       <c r="U34" t="n">
-        <v>19.27</v>
+        <v>17.25</v>
       </c>
       <c r="V34" t="n">
         <v>925.45</v>
@@ -4464,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>190207.09</v>
+        <v>89593.05</v>
       </c>
       <c r="G41" t="n">
         <v>1565.14</v>
@@ -4479,25 +4479,25 @@
         <v>179.58</v>
       </c>
       <c r="K41" t="n">
-        <v>169.51</v>
+        <v>134.98</v>
       </c>
       <c r="L41" t="n">
-        <v>9962.87</v>
+        <v>6569.67</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>16120.24</v>
+        <v>14498.36</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>441.84</v>
+        <v>384.49</v>
       </c>
       <c r="Q41" t="n">
-        <v>36427.96</v>
+        <v>33581.39</v>
       </c>
       <c r="R41" t="n">
         <v>69.26</v>
@@ -4506,16 +4506,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>2725.75</v>
+        <v>2355.06</v>
       </c>
       <c r="U41" t="n">
-        <v>4112.96</v>
+        <v>3050.94</v>
       </c>
       <c r="V41" t="n">
         <v>2176.55</v>
       </c>
       <c r="W41" t="n">
-        <v>3628.72</v>
+        <v>3619.81</v>
       </c>
       <c r="X41" t="n">
         <v>1.21</v>
@@ -4524,7 +4524,7 @@
         <v>23.19</v>
       </c>
       <c r="Z41" t="n">
-        <v>108.53</v>
+        <v>97.96</v>
       </c>
     </row>
     <row r="42">
@@ -4538,13 +4538,13 @@
         <v>130</v>
       </c>
       <c r="D42" t="n">
-        <v>72.26</v>
+        <v>72.21</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>216666.07</v>
+        <v>126365.43</v>
       </c>
       <c r="G42" t="n">
         <v>963.32</v>
@@ -4553,58 +4553,58 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>523.06</v>
+        <v>523.05</v>
       </c>
       <c r="J42" t="n">
-        <v>558.51</v>
+        <v>558.24</v>
       </c>
       <c r="K42" t="n">
-        <v>1180.14</v>
+        <v>753.36</v>
       </c>
       <c r="L42" t="n">
-        <v>40376.89</v>
+        <v>18329.12</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>49877.25</v>
+        <v>43239.46</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>1879.22</v>
+        <v>1537.34</v>
       </c>
       <c r="Q42" t="n">
-        <v>54632.67</v>
+        <v>49547.34</v>
       </c>
       <c r="R42" t="n">
-        <v>126.43</v>
+        <v>126.42</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>82.7</v>
+        <v>76.12</v>
       </c>
       <c r="U42" t="n">
-        <v>2671.77</v>
+        <v>1802.28</v>
       </c>
       <c r="V42" t="n">
-        <v>8798.36</v>
+        <v>8797.27</v>
       </c>
       <c r="W42" t="n">
-        <v>2820.98</v>
+        <v>2688.83</v>
       </c>
       <c r="X42" t="n">
         <v>0.09</v>
       </c>
       <c r="Y42" t="n">
-        <v>49.67</v>
+        <v>49.62</v>
       </c>
       <c r="Z42" t="n">
-        <v>229.9</v>
+        <v>202.67</v>
       </c>
     </row>
     <row r="43">
@@ -4624,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>282955.13</v>
+        <v>85937.16</v>
       </c>
       <c r="G43" t="n">
         <v>2073.74</v>
@@ -4639,25 +4639,25 @@
         <v>247.4</v>
       </c>
       <c r="K43" t="n">
-        <v>446.41</v>
+        <v>310.24</v>
       </c>
       <c r="L43" t="n">
-        <v>18078.49</v>
+        <v>8502.16</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>9982.77</v>
+        <v>8740.08</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1572.09</v>
+        <v>1325.49</v>
       </c>
       <c r="Q43" t="n">
-        <v>21673.55</v>
+        <v>20150.15</v>
       </c>
       <c r="R43" t="n">
         <v>180.66</v>
@@ -4666,16 +4666,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>3763.54</v>
+        <v>3345.81</v>
       </c>
       <c r="U43" t="n">
-        <v>4484.31</v>
+        <v>1750.58</v>
       </c>
       <c r="V43" t="n">
         <v>3043.61</v>
       </c>
       <c r="W43" t="n">
-        <v>2387.93</v>
+        <v>2382.52</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4684,7 +4684,7 @@
         <v>19.93</v>
       </c>
       <c r="Z43" t="n">
-        <v>68.69</v>
+        <v>62.85</v>
       </c>
     </row>
     <row r="44">
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>54104.54</v>
+        <v>27536.6</v>
       </c>
       <c r="G44" t="n">
         <v>5362.21</v>
@@ -4719,25 +4719,25 @@
         <v>698.52</v>
       </c>
       <c r="K44" t="n">
-        <v>1058.22</v>
+        <v>585.53</v>
       </c>
       <c r="L44" t="n">
-        <v>67347.97</v>
+        <v>30685.23</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>28070.72</v>
+        <v>19810.53</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1208.18</v>
+        <v>807.72</v>
       </c>
       <c r="Q44" t="n">
-        <v>6145.02</v>
+        <v>5557.9</v>
       </c>
       <c r="R44" t="n">
         <v>473.9</v>
@@ -4746,16 +4746,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>11110.73</v>
+        <v>7867.11</v>
       </c>
       <c r="U44" t="n">
-        <v>1443.66</v>
+        <v>905.23</v>
       </c>
       <c r="V44" t="n">
         <v>8734.37</v>
       </c>
       <c r="W44" t="n">
-        <v>11837.25</v>
+        <v>11550.55</v>
       </c>
       <c r="X44" t="n">
         <v>7.85</v>
@@ -4764,7 +4764,7 @@
         <v>26.09</v>
       </c>
       <c r="Z44" t="n">
-        <v>75.1</v>
+        <v>52.27</v>
       </c>
     </row>
     <row r="45">
@@ -4778,13 +4778,13 @@
         <v>133</v>
       </c>
       <c r="D45" t="n">
-        <v>98.84</v>
+        <v>98.83</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>154411</v>
+        <v>67356.31</v>
       </c>
       <c r="G45" t="n">
         <v>33823.14</v>
@@ -4799,25 +4799,25 @@
         <v>587.61</v>
       </c>
       <c r="K45" t="n">
-        <v>7.27</v>
+        <v>6.03</v>
       </c>
       <c r="L45" t="n">
-        <v>67177.53</v>
+        <v>22543.13</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>117668.15</v>
+        <v>70013.88</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2376.68</v>
+        <v>1308.3</v>
       </c>
       <c r="Q45" t="n">
-        <v>154578.51</v>
+        <v>85437.64</v>
       </c>
       <c r="R45" t="n">
         <v>60.81</v>
@@ -4826,25 +4826,25 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>50.72</v>
+        <v>50.34</v>
       </c>
       <c r="U45" t="n">
-        <v>4259.32</v>
+        <v>1582.41</v>
       </c>
       <c r="V45" t="n">
-        <v>10907.07</v>
+        <v>10907.03</v>
       </c>
       <c r="W45" t="n">
-        <v>5606.35</v>
+        <v>5272.22</v>
       </c>
       <c r="X45" t="n">
         <v>337.76</v>
       </c>
       <c r="Y45" t="n">
-        <v>88.81</v>
+        <v>88.8</v>
       </c>
       <c r="Z45" t="n">
-        <v>665.3</v>
+        <v>389.33</v>
       </c>
     </row>
     <row r="46">
@@ -4864,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>77191.47</v>
+        <v>18059.64</v>
       </c>
       <c r="G46" t="n">
         <v>9944.11</v>
@@ -4879,25 +4879,25 @@
         <v>232.33</v>
       </c>
       <c r="K46" t="n">
-        <v>3.54</v>
+        <v>3.04</v>
       </c>
       <c r="L46" t="n">
-        <v>52543.96</v>
+        <v>10730.94</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>41767.88</v>
+        <v>23785.92</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>652.77</v>
+        <v>382.84</v>
       </c>
       <c r="Q46" t="n">
-        <v>28900.68</v>
+        <v>15573.06</v>
       </c>
       <c r="R46" t="n">
         <v>57.58</v>
@@ -4906,16 +4906,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>25.77</v>
+        <v>25.3</v>
       </c>
       <c r="U46" t="n">
-        <v>3290.71</v>
+        <v>619.84</v>
       </c>
       <c r="V46" t="n">
         <v>4990.51</v>
       </c>
       <c r="W46" t="n">
-        <v>6434.9</v>
+        <v>6096.78</v>
       </c>
       <c r="X46" t="n">
         <v>185.47</v>
@@ -4924,7 +4924,7 @@
         <v>33.12</v>
       </c>
       <c r="Z46" t="n">
-        <v>248.37</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47">
@@ -4938,13 +4938,13 @@
         <v>135</v>
       </c>
       <c r="D47" t="n">
-        <v>34.94</v>
+        <v>34.93</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>158805.49</v>
+        <v>108310.64</v>
       </c>
       <c r="G47" t="n">
         <v>1911.65</v>
@@ -4959,25 +4959,25 @@
         <v>439.7</v>
       </c>
       <c r="K47" t="n">
-        <v>161.75</v>
+        <v>137.88</v>
       </c>
       <c r="L47" t="n">
-        <v>13505.68</v>
+        <v>9234.42</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>30900.92</v>
+        <v>27289</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>851.79</v>
+        <v>765.88</v>
       </c>
       <c r="Q47" t="n">
-        <v>14183.37</v>
+        <v>12588.7</v>
       </c>
       <c r="R47" t="n">
         <v>136.21</v>
@@ -4989,22 +4989,22 @@
         <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>679.8</v>
+        <v>602.7</v>
       </c>
       <c r="V47" t="n">
-        <v>5282.82</v>
+        <v>5282.79</v>
       </c>
       <c r="W47" t="n">
-        <v>2112.64</v>
+        <v>2082.8</v>
       </c>
       <c r="X47" t="n">
         <v>40.4</v>
       </c>
       <c r="Y47" t="n">
-        <v>31.2</v>
+        <v>31.19</v>
       </c>
       <c r="Z47" t="n">
-        <v>147.75</v>
+        <v>130.77</v>
       </c>
     </row>
     <row r="48">
@@ -5024,7 +5024,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>227236.9</v>
+        <v>128311.85</v>
       </c>
       <c r="G48" t="n">
         <v>9459.51</v>
@@ -5042,22 +5042,22 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>21028.58</v>
+        <v>12783.54</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>104219.53</v>
+        <v>63047.43</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>1051.04</v>
+        <v>764.77</v>
       </c>
       <c r="Q48" t="n">
-        <v>268577.86</v>
+        <v>150434.15</v>
       </c>
       <c r="R48" t="n">
         <v>82.37</v>
@@ -5069,13 +5069,13 @@
         <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>3910.83</v>
+        <v>3133.6</v>
       </c>
       <c r="V48" t="n">
         <v>15239.02</v>
       </c>
       <c r="W48" t="n">
-        <v>11457.09</v>
+        <v>10884.68</v>
       </c>
       <c r="X48" t="n">
         <v>306.79</v>
@@ -5084,7 +5084,7 @@
         <v>73.06</v>
       </c>
       <c r="Z48" t="n">
-        <v>579.9</v>
+        <v>359.89</v>
       </c>
     </row>
     <row r="49">
@@ -5104,7 +5104,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>28732.32</v>
+        <v>17372.94</v>
       </c>
       <c r="G49" t="n">
         <v>2273.19</v>
@@ -5119,16 +5119,16 @@
         <v>222.03</v>
       </c>
       <c r="K49" t="n">
-        <v>42.28</v>
+        <v>35.23</v>
       </c>
       <c r="L49" t="n">
-        <v>9639.76</v>
+        <v>7966.74</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>13272.18</v>
+        <v>12883.19</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>8147.99</v>
+        <v>7884.72</v>
       </c>
       <c r="R49" t="n">
         <v>20.18</v>
@@ -5149,13 +5149,13 @@
         <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>2149.51</v>
+        <v>1472.96</v>
       </c>
       <c r="V49" t="n">
         <v>2863.12</v>
       </c>
       <c r="W49" t="n">
-        <v>7607.4</v>
+        <v>7607.22</v>
       </c>
       <c r="X49" t="n">
         <v>33.93</v>
@@ -5164,7 +5164,7 @@
         <v>11.7</v>
       </c>
       <c r="Z49" t="n">
-        <v>63</v>
+        <v>61.33</v>
       </c>
     </row>
     <row r="50">
@@ -5184,7 +5184,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>121278.97</v>
+        <v>42378.31</v>
       </c>
       <c r="G50" t="n">
         <v>4256.18</v>
@@ -5202,13 +5202,13 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>1834.14</v>
+        <v>1065.11</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>24260.03</v>
+        <v>23644.4</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -5217,7 +5217,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>30827.94</v>
+        <v>29941.15</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -5229,13 +5229,13 @@
         <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>7167.58</v>
+        <v>3569</v>
       </c>
       <c r="V50" t="n">
         <v>6420.58</v>
       </c>
       <c r="W50" t="n">
-        <v>9114.24</v>
+        <v>9113.88</v>
       </c>
       <c r="X50" t="n">
         <v>51.67</v>
@@ -5244,7 +5244,7 @@
         <v>23.29</v>
       </c>
       <c r="Z50" t="n">
-        <v>127.95</v>
+        <v>124.86</v>
       </c>
     </row>
     <row r="51">
@@ -5264,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>95464.71</v>
+        <v>28145.69</v>
       </c>
       <c r="G51" t="n">
         <v>1801</v>
@@ -5282,22 +5282,22 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>13579.26</v>
+        <v>2538.55</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>11308.42</v>
+        <v>10619.59</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>160.9</v>
+        <v>146.92</v>
       </c>
       <c r="Q51" t="n">
-        <v>14486.05</v>
+        <v>13555.08</v>
       </c>
       <c r="R51" t="n">
         <v>34.46</v>
@@ -5309,7 +5309,7 @@
         <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>2067.53</v>
+        <v>865.65</v>
       </c>
       <c r="V51" t="n">
         <v>3523.04</v>
@@ -5324,7 +5324,7 @@
         <v>10.79</v>
       </c>
       <c r="Z51" t="n">
-        <v>54.33</v>
+        <v>50.86</v>
       </c>
     </row>
     <row r="52">
@@ -5344,7 +5344,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>189950.48</v>
+        <v>109968.7</v>
       </c>
       <c r="G52" t="n">
         <v>4498.65</v>
@@ -5359,16 +5359,16 @@
         <v>620.56</v>
       </c>
       <c r="K52" t="n">
-        <v>19.33</v>
+        <v>19.37</v>
       </c>
       <c r="L52" t="n">
-        <v>8502.19</v>
+        <v>6850.2</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>77804.84</v>
+        <v>44955.82</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -5377,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>228805.24</v>
+        <v>112678.74</v>
       </c>
       <c r="R52" t="n">
         <v>24.07</v>
@@ -5389,13 +5389,13 @@
         <v>0</v>
       </c>
       <c r="U52" t="n">
-        <v>5806.91</v>
+        <v>4022.21</v>
       </c>
       <c r="V52" t="n">
         <v>14291.37</v>
       </c>
       <c r="W52" t="n">
-        <v>16718.2</v>
+        <v>15719.05</v>
       </c>
       <c r="X52" t="n">
         <v>176.25</v>
@@ -5404,7 +5404,7 @@
         <v>43.81</v>
       </c>
       <c r="Z52" t="n">
-        <v>379.37</v>
+        <v>215.09</v>
       </c>
     </row>
     <row r="53">
@@ -5424,7 +5424,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>133665.04</v>
+        <v>56790.27</v>
       </c>
       <c r="G53" t="n">
         <v>8297.98</v>
@@ -5442,22 +5442,22 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>11563.11</v>
+        <v>4403.4</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>8239.67</v>
+        <v>5068.69</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>688.04</v>
+        <v>418.33</v>
       </c>
       <c r="Q53" t="n">
-        <v>42618.42</v>
+        <v>27920.78</v>
       </c>
       <c r="R53" t="n">
         <v>103.38</v>
@@ -5469,13 +5469,13 @@
         <v>0</v>
       </c>
       <c r="U53" t="n">
-        <v>5287.87</v>
+        <v>2865.96</v>
       </c>
       <c r="V53" t="n">
         <v>3491.21</v>
       </c>
       <c r="W53" t="n">
-        <v>4508.75</v>
+        <v>4495.14</v>
       </c>
       <c r="X53" t="n">
         <v>34.89</v>
@@ -5484,7 +5484,7 @@
         <v>18.87</v>
       </c>
       <c r="Z53" t="n">
-        <v>90.16</v>
+        <v>59.51</v>
       </c>
     </row>
     <row r="54">
@@ -5504,7 +5504,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>59182.34</v>
+        <v>19965.66</v>
       </c>
       <c r="G54" t="n">
         <v>1992.06</v>
@@ -5519,25 +5519,25 @@
         <v>302.05</v>
       </c>
       <c r="K54" t="n">
-        <v>2.56</v>
+        <v>2.43</v>
       </c>
       <c r="L54" t="n">
-        <v>26391.57</v>
+        <v>8866.49</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>9609.41</v>
+        <v>9276.67</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>373.4</v>
+        <v>360.11</v>
       </c>
       <c r="Q54" t="n">
-        <v>8350.59</v>
+        <v>7935.8</v>
       </c>
       <c r="R54" t="n">
         <v>95.76</v>
@@ -5549,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>2653.69</v>
+        <v>875.18</v>
       </c>
       <c r="V54" t="n">
         <v>3247.34</v>
@@ -5564,7 +5564,7 @@
         <v>12.2</v>
       </c>
       <c r="Z54" t="n">
-        <v>41.99</v>
+        <v>40.42</v>
       </c>
     </row>
     <row r="55">
@@ -5578,13 +5578,13 @@
         <v>144</v>
       </c>
       <c r="D55" t="n">
-        <v>100.76</v>
+        <v>100.75</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>313428.62</v>
+        <v>127275.45</v>
       </c>
       <c r="G55" t="n">
         <v>10256.43</v>
@@ -5596,46 +5596,46 @@
         <v>2345.29</v>
       </c>
       <c r="J55" t="n">
-        <v>1172.54</v>
+        <v>1172.52</v>
       </c>
       <c r="K55" t="n">
-        <v>214.91</v>
+        <v>152.62</v>
       </c>
       <c r="L55" t="n">
-        <v>84509.99</v>
+        <v>30480.17</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>20063.14</v>
+        <v>18276.36</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>3535.56</v>
+        <v>3264.48</v>
       </c>
       <c r="Q55" t="n">
-        <v>27257.24</v>
+        <v>24378.21</v>
       </c>
       <c r="R55" t="n">
-        <v>779.94</v>
+        <v>779.93</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>58.64</v>
+        <v>53.61</v>
       </c>
       <c r="U55" t="n">
-        <v>11680.24</v>
+        <v>5202.23</v>
       </c>
       <c r="V55" t="n">
         <v>12090.67</v>
       </c>
       <c r="W55" t="n">
-        <v>21582.75</v>
+        <v>21461.51</v>
       </c>
       <c r="X55" t="n">
         <v>99.57</v>
@@ -5644,7 +5644,7 @@
         <v>58.1</v>
       </c>
       <c r="Z55" t="n">
-        <v>40.49</v>
+        <v>36.01</v>
       </c>
     </row>
     <row r="56">
@@ -5664,7 +5664,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>74.8</v>
+        <v>74.48</v>
       </c>
       <c r="G56" t="n">
         <v>737.47</v>
@@ -5682,7 +5682,7 @@
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>25444.79</v>
+        <v>19026.14</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="U56" t="n">
-        <v>7.43</v>
+        <v>6.36</v>
       </c>
       <c r="V56" t="n">
         <v>647.77</v>
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>32.72</v>
+        <v>31.42</v>
       </c>
       <c r="G57" t="n">
         <v>13807.28</v>
@@ -5762,13 +5762,13 @@
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>59291.32</v>
+        <v>31301.79</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>20966.78</v>
+        <v>20461.49</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -5789,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="U57" t="n">
-        <v>6.63</v>
+        <v>5.97</v>
       </c>
       <c r="V57" t="n">
         <v>6191.87</v>
@@ -5824,7 +5824,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>11.54</v>
+        <v>11.27</v>
       </c>
       <c r="G58" t="n">
         <v>15631.51</v>
@@ -5842,13 +5842,13 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>33219.33</v>
+        <v>12237.11</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>18590.73</v>
+        <v>18443.16</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -5922,13 +5922,13 @@
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>12915.65</v>
+        <v>5765.21</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>9464.22</v>
+        <v>9459.55</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -5949,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>31.59</v>
+        <v>28.34</v>
       </c>
       <c r="V59" t="n">
         <v>3341.98</v>
